--- a/指令集与编码方案/V3.0 分器件可扩展编码分案.xlsx
+++ b/指令集与编码方案/V3.0 分器件可扩展编码分案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cxl/Desktop/RiscV-Pipeline-BranchPrediction-DynamicScheduling-CPU/指令集与编码方案/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B19B1B8-8DA9-0645-96E5-9C349A3D2B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D123A4A5-E773-CE46-91EA-942BB26E62CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="261">
   <si>
     <t>读字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1383,6 +1383,10 @@
   </si>
   <si>
     <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三位表示rm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2550,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07774324-018B-9049-8E55-5470C76D7314}">
   <dimension ref="A1:DB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="68" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BV11" sqref="BV11"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="68" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AW64" sqref="AW64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30"/>
@@ -9547,7 +9551,9 @@
       <c r="AV59" s="28">
         <v>0</v>
       </c>
-      <c r="AW59" s="28"/>
+      <c r="AW59" s="28" t="s">
+        <v>260</v>
+      </c>
       <c r="AX59" s="28"/>
       <c r="AY59" s="63"/>
       <c r="AZ59" s="4"/>
@@ -9662,7 +9668,9 @@
       <c r="AV60" s="32">
         <v>0</v>
       </c>
-      <c r="AW60" s="32"/>
+      <c r="AW60" s="28" t="s">
+        <v>260</v>
+      </c>
       <c r="AX60" s="32"/>
       <c r="AY60" s="65"/>
       <c r="AZ60" s="4"/>
@@ -9781,7 +9789,9 @@
       <c r="AV61" s="28">
         <v>0</v>
       </c>
-      <c r="AW61" s="28"/>
+      <c r="AW61" s="28" t="s">
+        <v>260</v>
+      </c>
       <c r="AX61" s="28"/>
       <c r="AY61" s="63"/>
       <c r="AZ61" s="4"/>
@@ -9900,7 +9910,9 @@
       <c r="AV62" s="32">
         <v>0</v>
       </c>
-      <c r="AW62" s="32"/>
+      <c r="AW62" s="28" t="s">
+        <v>260</v>
+      </c>
       <c r="AX62" s="32"/>
       <c r="AY62" s="65"/>
       <c r="AZ62" s="4"/>
@@ -10025,7 +10037,9 @@
       <c r="AV63" s="58">
         <v>0</v>
       </c>
-      <c r="AW63" s="58"/>
+      <c r="AW63" s="28" t="s">
+        <v>260</v>
+      </c>
       <c r="AX63" s="58"/>
       <c r="AY63" s="52"/>
       <c r="AZ63" s="4"/>
